--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_2.xlsx
@@ -482,617 +482,617 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1991965384759</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5473596978819956</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1234742772479376</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4735446150467243</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8862534761428833</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2638390064239502</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1145943775773048</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1936040669679642</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_1</t>
+          <t>model_11_2_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4249061123568703</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3874906665506761</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.225528602965939</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06502485282030779</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6364594697952271</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3570249378681183</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3290039300918579</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3438372910022736</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_8</t>
+          <t>model_11_2_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4410953091073463</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2410622994407811</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D4" t="n">
-        <v>-21.06328434001851</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.516611995187685</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6185427904129028</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4423764050006866</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H4" t="n">
-        <v>2.250454902648926</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I4" t="n">
-        <v>1.293234825134277</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_9</t>
+          <t>model_11_2_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4417532112225755</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1318811556320119</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D5" t="n">
-        <v>-20.95406462440251</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.593968792122102</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6178146600723267</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5060168504714966</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H5" t="n">
-        <v>2.239314556121826</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I5" t="n">
-        <v>1.321682691574097</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_10</t>
+          <t>model_11_2_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4433263705769578</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03576113171066053</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D6" t="n">
-        <v>-20.83421527512203</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.658917780187434</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6160736680030823</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5620441436767578</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H6" t="n">
-        <v>2.227089881896973</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I6" t="n">
-        <v>1.34556770324707</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_11</t>
+          <t>model_11_2_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4619257147599193</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1251516121982115</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D7" t="n">
-        <v>-19.2150409958165</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.582668425949282</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5954896211624146</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6558383703231812</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H7" t="n">
-        <v>2.061934232711792</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I7" t="n">
-        <v>1.317526936531067</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_12</t>
+          <t>model_11_2_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4902997318638965</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04962373330527869</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D8" t="n">
-        <v>-17.6131076406147</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.310213863280393</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F8" t="n">
-        <v>0.564087986946106</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6118140816688538</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H8" t="n">
-        <v>1.898537039756775</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I8" t="n">
-        <v>1.217331767082214</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_13</t>
+          <t>model_11_2_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4984094072069755</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02793197049454776</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D9" t="n">
-        <v>-17.15778500674681</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.23258647394275</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5551129579544067</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5991701483726501</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H9" t="n">
-        <v>1.852094054222107</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I9" t="n">
-        <v>1.18878436088562</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_14</t>
+          <t>model_11_2_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5000183232845685</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02003353609577352</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D10" t="n">
-        <v>-17.09150331497945</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.217302613199403</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5533323884010315</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5945662260055542</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H10" t="n">
-        <v>1.845333337783813</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I10" t="n">
-        <v>1.183163642883301</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_24</t>
+          <t>model_11_2_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5005912256436496</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.03066293363891992</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D11" t="n">
-        <v>-16.98741892132201</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.212632833218316</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5526983141899109</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6007620096206665</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H11" t="n">
-        <v>1.834716796875</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I11" t="n">
-        <v>1.181446313858032</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_23</t>
+          <t>model_11_2_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5007519463539477</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03006815825546627</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D12" t="n">
-        <v>-16.9788877054506</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.211034244391297</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5525205731391907</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6004152894020081</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H12" t="n">
-        <v>1.833846569061279</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I12" t="n">
-        <v>1.180858492851257</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_18</t>
+          <t>model_11_2_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5008337011652664</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02218543622958391</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D13" t="n">
-        <v>-17.02151295072679</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.209982922333853</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5524300336837769</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5958206057548523</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H13" t="n">
-        <v>1.838194370269775</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I13" t="n">
-        <v>1.180471777915955</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_22</t>
+          <t>model_11_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5008583274224201</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.02896020237589636</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.97777615829083</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.209958351949161</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5524027943611145</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5997695326805115</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H14" t="n">
-        <v>1.833733201026917</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I14" t="n">
-        <v>1.180462837219238</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_19</t>
+          <t>model_11_2_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5009700822143462</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02411758626486593</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D15" t="n">
-        <v>-16.99938940180451</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.208700105236605</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5522791147232056</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5969468355178833</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H15" t="n">
-        <v>1.835937738418579</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I15" t="n">
-        <v>1.180000185966492</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_21</t>
+          <t>model_11_2_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5009839223137177</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.02632360658337651</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D16" t="n">
-        <v>-16.98510460304563</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.208686616707908</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5522637963294983</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G16" t="n">
-        <v>0.598232626914978</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H16" t="n">
-        <v>1.834480762481689</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I16" t="n">
-        <v>1.179995059967041</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_20</t>
+          <t>model_11_2_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5011518732476</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02375362022419725</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D17" t="n">
-        <v>-16.98839242730553</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.206975480125762</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5520778894424438</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5967347025871277</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H17" t="n">
-        <v>1.834815979003906</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I17" t="n">
-        <v>1.179365754127502</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_15</t>
+          <t>model_11_2_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5011570544181847</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01512874933471942</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.03863830152546</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.206294215119352</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5520721077919006</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5917072892189026</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H18" t="n">
-        <v>1.839941143989563</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I18" t="n">
-        <v>1.179115295410156</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_17</t>
+          <t>model_11_2_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.501448141819765</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01593102750820363</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.01435773196636</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.203810347454644</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5517500638961792</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5921749472618103</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H19" t="n">
-        <v>1.837464570999146</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I19" t="n">
-        <v>1.178201913833618</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_16</t>
+          <t>model_11_2_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5016555216186056</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0147924831380517</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D20" t="n">
-        <v>-17.00540146778745</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.201660511244657</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5515204668045044</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5915113091468811</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H20" t="n">
-        <v>1.836550951004028</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I20" t="n">
-        <v>1.177411317825317</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_2</t>
+          <t>model_11_2_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5558036055045219</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5071299755404887</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.216850149678748</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1665654480760661</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F21" t="n">
-        <v>0.491594523191452</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2872884571552277</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3281187415122986</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I21" t="n">
-        <v>0.306495726108551</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="22">
@@ -1102,152 +1102,152 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.606343699891286</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3256204603259794</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.818700038726035</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06620417003098256</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4356615245342255</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3930883407592773</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2875074148178101</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3434035778045654</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_4</t>
+          <t>model_11_2_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6430570911822278</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3772527940554082</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.260696363383757</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0518689013159418</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3950305879116058</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3629924356937408</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3325910270214081</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I23" t="n">
-        <v>0.348675400018692</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_5</t>
+          <t>model_11_2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6748185338722403</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3748265346429999</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.735128381475248</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1184018954217436</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3598800599575043</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3644067049026489</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2789831161499023</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3242078721523285</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_6</t>
+          <t>model_11_2_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6767937944653379</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2603022986643109</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.71322589383009</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02520712514987644</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F25" t="n">
-        <v>0.357694000005722</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4311615824699402</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2767490446567535</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3584802746772766</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_11_2_7</t>
+          <t>model_11_2_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6832589947947878</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2893525064570541</v>
+        <v>0.267500787098648</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.700450173152807</v>
+        <v>0.3229168344848683</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05123510904515982</v>
+        <v>0.4396081365611429</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3505389392375946</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4142285585403442</v>
+        <v>0.8601891994476318</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2754459381103516</v>
+        <v>0.5655463933944702</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3489084541797638</v>
+        <v>0.7215338945388794</v>
       </c>
     </row>
   </sheetData>
